--- a/biology/Microbiologie/Gemmatimonadales/Gemmatimonadales.xlsx
+++ b/biology/Microbiologie/Gemmatimonadales/Gemmatimonadales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gemmatimonadales sont un ordre de bactéries à Gram négatif de la classe des Gemmatimonadetes. Son nom provient de Gemmatimonas qui est le genre type de cet ordre.
-En 2022 selon la LPSN  (19 novembre 2022)[2] cet ordre ne contient qu'une seule famille, les Gemmatimonadaceae Zhang et al. 2003.
+En 2022 selon la LPSN  (19 novembre 2022) cet ordre ne contient qu'une seule famille, les Gemmatimonadaceae Zhang et al. 2003.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre est proposé en 2003 pour recevoir l'espèce Gemmatimonas aurantiaca isolée d'un réacteur traitant des eaux usées[1]. Il est validé la même année par une publication dans l'IJSEM[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre est proposé en 2003 pour recevoir l'espèce Gemmatimonas aurantiaca isolée d'un réacteur traitant des eaux usées. Il est validé la même année par une publication dans l'IJSEM.
 </t>
         </is>
       </c>
